--- a/result/with_base/234/arousal/s12_1.xlsx
+++ b/result/with_base/234/arousal/s12_1.xlsx
@@ -9,8 +9,6 @@
   <sheets>
     <sheet name="condition" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="result" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="0.0" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="1.0" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t>accuracy</t>
   </si>
@@ -84,15 +82,6 @@
   </si>
   <si>
     <t>train_loss</t>
-  </si>
-  <si>
-    <t>fpr</t>
-  </si>
-  <si>
-    <t>roc_auc</t>
-  </si>
-  <si>
-    <t>tpr</t>
   </si>
 </sst>
 </file>
@@ -492,10 +481,10 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="n">
-        <v>0.9750000238418579</v>
+        <v>0.9547991156578064</v>
       </c>
       <c r="B2" t="n">
-        <v>200</v>
+        <v>128</v>
       </c>
       <c r="C2" t="n">
         <v>1024</v>
@@ -510,13 +499,13 @@
         <v>15</v>
       </c>
       <c r="G2" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
         <v>0.5</v>
       </c>
       <c r="I2" t="n">
-        <v>5e-06</v>
+        <v>1e-06</v>
       </c>
       <c r="J2" t="s">
         <v>16</v>
@@ -542,7 +531,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,16 +561,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8449999988079071</v>
+        <v>0.8448660671710968</v>
       </c>
       <c r="C2" t="n">
-        <v>41732.640625</v>
+        <v>11279.3740234375</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8332954590970819</v>
+        <v>0.8331144942956812</v>
       </c>
       <c r="E2" t="n">
-        <v>41732.19353693182</v>
+        <v>11279.17153033088</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -589,16 +578,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8650000095367432</v>
+        <v>0.8537946343421936</v>
       </c>
       <c r="C3" t="n">
-        <v>40949.6796875</v>
+        <v>10970.20166015625</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8732954480431296</v>
+        <v>0.8678440136068007</v>
       </c>
       <c r="E3" t="n">
-        <v>40949.13778409091</v>
+        <v>10969.83151424632</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -606,16 +595,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8824999928474426</v>
+        <v>0.8777901828289032</v>
       </c>
       <c r="C4" t="n">
-        <v>40180.0625</v>
+        <v>10666.12255859375</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8979545452378013</v>
+        <v>0.886423317825093</v>
       </c>
       <c r="E4" t="n">
-        <v>40180.55007102273</v>
+        <v>10665.64527803309</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -623,16 +612,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9175000190734863</v>
+        <v>0.8989955484867096</v>
       </c>
       <c r="C5" t="n">
-        <v>39418.71484375</v>
+        <v>10367.30517578125</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9295454621315002</v>
+        <v>0.9145877115866717</v>
       </c>
       <c r="E5" t="n">
-        <v>39419.33842329546</v>
+        <v>10367.10317095588</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -640,16 +629,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9024999737739563</v>
+        <v>0.9034598171710968</v>
       </c>
       <c r="C6" t="n">
-        <v>38669.919921875</v>
+        <v>10076.10400390625</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9320454543287103</v>
+        <v>0.9198398099226111</v>
       </c>
       <c r="E6" t="n">
-        <v>38670.44424715909</v>
+        <v>10075.54302619485</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -657,16 +646,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9475000202655792</v>
+        <v>0.9241071343421936</v>
       </c>
       <c r="C7" t="n">
-        <v>37931.4453125</v>
+        <v>9790.93798828125</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9454545378684998</v>
+        <v>0.9243697489009184</v>
       </c>
       <c r="E7" t="n">
-        <v>37931.90802556818</v>
+        <v>9790.42147288603</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -674,16 +663,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9375</v>
+        <v>0.9029017984867096</v>
       </c>
       <c r="C8" t="n">
-        <v>37205.36328125</v>
+        <v>9512.9423828125</v>
       </c>
       <c r="D8" t="n">
-        <v>0.953977265141227</v>
+        <v>0.9271271018420949</v>
       </c>
       <c r="E8" t="n">
-        <v>37205.58167613636</v>
+        <v>9512.181755514706</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -691,16 +680,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9399999976158142</v>
+        <v>0.9073660671710968</v>
       </c>
       <c r="C9" t="n">
-        <v>36491.697265625</v>
+        <v>9241.09326171875</v>
       </c>
       <c r="D9" t="n">
-        <v>0.955568172714927</v>
+        <v>0.9282431707662695</v>
       </c>
       <c r="E9" t="n">
-        <v>36491.17507102273</v>
+        <v>9240.430721507353</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -708,16 +697,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9325000047683716</v>
+        <v>0.9285714328289032</v>
       </c>
       <c r="C10" t="n">
-        <v>35788.9765625</v>
+        <v>8976.06640625</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9577272642742504</v>
+        <v>0.9396008393343758</v>
       </c>
       <c r="E10" t="n">
-        <v>35788.97940340909</v>
+        <v>8975.537166819853</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -725,16 +714,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9625000059604645</v>
+        <v>0.94140625</v>
       </c>
       <c r="C11" t="n">
-        <v>35098.66796875</v>
+        <v>8717.90087890625</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9734091054309498</v>
+        <v>0.9518119762925541</v>
       </c>
       <c r="E11" t="n">
-        <v>35098.1796875</v>
+        <v>8717.439280790441</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -742,16 +731,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9475000202655792</v>
+        <v>0.9285714328289032</v>
       </c>
       <c r="C12" t="n">
-        <v>34420.84375</v>
+        <v>8466.701171875</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9618181748823686</v>
+        <v>0.9556197489009184</v>
       </c>
       <c r="E12" t="n">
-        <v>34420.89311079546</v>
+        <v>8465.872185202206</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -759,16 +748,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.9408482015132904</v>
       </c>
       <c r="C13" t="n">
-        <v>33754.837890625</v>
+        <v>8221.38671875</v>
       </c>
       <c r="D13" t="n">
-        <v>0.977500016039068</v>
+        <v>0.9702599784907173</v>
       </c>
       <c r="E13" t="n">
-        <v>33754.35759943182</v>
+        <v>8220.75350413603</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -776,16 +765,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.9475000202655792</v>
+        <v>0.9419642984867096</v>
       </c>
       <c r="C14" t="n">
-        <v>33101.2421875</v>
+        <v>7982.798828125</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9623863588679921</v>
+        <v>0.9701943292337305</v>
       </c>
       <c r="E14" t="n">
-        <v>33100.95383522727</v>
+        <v>7982.163430606618</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -793,16 +782,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.9453125</v>
       </c>
       <c r="C15" t="n">
-        <v>32458.4775390625</v>
+        <v>7750.424072265625</v>
       </c>
       <c r="D15" t="n">
-        <v>0.982272744178772</v>
+        <v>0.9669117647058824</v>
       </c>
       <c r="E15" t="n">
-        <v>32458.13494318182</v>
+        <v>7749.818704044118</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -810,16 +799,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.9453125</v>
       </c>
       <c r="C16" t="n">
-        <v>31827.81640625</v>
+        <v>7524.10546875</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9797727357257496</v>
+        <v>0.9726234253715066</v>
       </c>
       <c r="E16" t="n">
-        <v>31827.52237215909</v>
+        <v>7523.450855928309</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -827,16 +816,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.9749999940395355</v>
+        <v>0.94140625</v>
       </c>
       <c r="C17" t="n">
-        <v>31208.5087890625</v>
+        <v>7303.873291015625</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9828409227457914</v>
+        <v>0.9727547273916357</v>
       </c>
       <c r="E17" t="n">
-        <v>31208.16672585227</v>
+        <v>7303.191837086397</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -844,16 +833,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.9824999868869781</v>
+        <v>0.9235491156578064</v>
       </c>
       <c r="C18" t="n">
-        <v>30600.1552734375</v>
+        <v>7089.640869140625</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9934090971946716</v>
+        <v>0.9713760509210474</v>
       </c>
       <c r="E18" t="n">
-        <v>30599.81338778409</v>
+        <v>7088.8515625</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -861,16 +850,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.9650000035762787</v>
+        <v>0.9408482015132904</v>
       </c>
       <c r="C19" t="n">
-        <v>30003.408203125</v>
+        <v>6880.686279296875</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9750000130046498</v>
+        <v>0.9773503156269298</v>
       </c>
       <c r="E19" t="n">
-        <v>30003.21502130682</v>
+        <v>6880.135770909927</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -878,16 +867,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.9774999916553497</v>
+        <v>0.9241071343421936</v>
       </c>
       <c r="C20" t="n">
-        <v>29417.11328125</v>
+        <v>6677.9013671875</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9917045506564054</v>
+        <v>0.972229515804964</v>
       </c>
       <c r="E20" t="n">
-        <v>29416.81107954546</v>
+        <v>6677.14639820772</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -895,16 +884,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.9799999892711639</v>
+        <v>0.9447544515132904</v>
       </c>
       <c r="C21" t="n">
-        <v>28841.7197265625</v>
+        <v>6479.980224609375</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9905681881037626</v>
+        <v>0.9721638665479773</v>
       </c>
       <c r="E21" t="n">
-        <v>28841.51828835227</v>
+        <v>6479.566291360294</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -912,16 +901,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.9749999940395355</v>
+        <v>0.9363839328289032</v>
       </c>
       <c r="C22" t="n">
-        <v>28277.1396484375</v>
+        <v>6287.802001953125</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9912500056353483</v>
+        <v>0.9696034648839165</v>
       </c>
       <c r="E22" t="n">
-        <v>28276.69566761364</v>
+        <v>6287.309024586397</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -929,16 +918,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.9724999964237213</v>
+        <v>0.9458705484867096</v>
       </c>
       <c r="C23" t="n">
-        <v>27722.9609375</v>
+        <v>6100.70556640625</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9904545545578003</v>
+        <v>0.9717043077244478</v>
       </c>
       <c r="E23" t="n">
-        <v>27722.46271306818</v>
+        <v>6100.226907169118</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -946,16 +935,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.9749999940395355</v>
+        <v>0.9497767984867096</v>
       </c>
       <c r="C24" t="n">
-        <v>27178.880859375</v>
+        <v>5918.64111328125</v>
       </c>
       <c r="D24" t="n">
-        <v>0.991136372089386</v>
+        <v>0.9856223744504592</v>
       </c>
       <c r="E24" t="n">
-        <v>27178.39861505682</v>
+        <v>5918.184283088235</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -963,16 +952,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.9799999892711639</v>
+        <v>0.9453125</v>
       </c>
       <c r="C25" t="n">
-        <v>26644.84765625</v>
+        <v>5741.5869140625</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9898863705721769</v>
+        <v>0.9805015746284934</v>
       </c>
       <c r="E25" t="n">
-        <v>26644.41388494318</v>
+        <v>5741.225901884191</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -980,16 +969,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.9850000143051147</v>
+        <v>0.9241071343421936</v>
       </c>
       <c r="C26" t="n">
-        <v>26120.4697265625</v>
+        <v>5569.561767578125</v>
       </c>
       <c r="D26" t="n">
-        <v>0.990340915593234</v>
+        <v>0.9779411764705882</v>
       </c>
       <c r="E26" t="n">
-        <v>26120.22301136364</v>
+        <v>5569.088752297794</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -997,16 +986,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.9749999940395355</v>
+        <v>0.9453125</v>
       </c>
       <c r="C27" t="n">
-        <v>25606.126953125</v>
+        <v>5401.96337890625</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9954545497894287</v>
+        <v>0.9885110294117647</v>
       </c>
       <c r="E27" t="n">
-        <v>25605.724609375</v>
+        <v>5401.61417164522</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1014,16 +1003,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.9650000035762787</v>
+        <v>0.9497767984867096</v>
       </c>
       <c r="C28" t="n">
-        <v>25101.2197265625</v>
+        <v>5239.182373046875</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9915909171104431</v>
+        <v>0.987985817825093</v>
       </c>
       <c r="E28" t="n">
-        <v>25100.90500710227</v>
+        <v>5238.79239430147</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1031,16 +1020,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.9650000035762787</v>
+        <v>0.94140625</v>
       </c>
       <c r="C29" t="n">
-        <v>24605.984375</v>
+        <v>5080.85986328125</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9907954606142911</v>
+        <v>0.987985817825093</v>
       </c>
       <c r="E29" t="n">
-        <v>24605.419921875</v>
+        <v>5080.444680606618</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1048,16 +1037,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0.9675000011920929</v>
+        <v>0.9497767984867096</v>
       </c>
       <c r="C30" t="n">
-        <v>24119.466796875</v>
+        <v>4926.811767578125</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9950000047683716</v>
+        <v>0.9883140746284934</v>
       </c>
       <c r="E30" t="n">
-        <v>24119.08558238636</v>
+        <v>4926.482306985294</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1065,16 +1054,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0.987500011920929</v>
+        <v>0.9458705484867096</v>
       </c>
       <c r="C31" t="n">
-        <v>23642.0986328125</v>
+        <v>4777.21337890625</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9953409108248624</v>
+        <v>0.9862132352941176</v>
       </c>
       <c r="E31" t="n">
-        <v>23641.82954545454</v>
+        <v>4776.790268841912</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1082,16 +1071,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0.9725000262260437</v>
+        <v>0.9453125</v>
       </c>
       <c r="C32" t="n">
-        <v>23173.8369140625</v>
+        <v>4631.608642578125</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9977272748947144</v>
+        <v>0.972360817825093</v>
       </c>
       <c r="E32" t="n">
-        <v>23173.51047585227</v>
+        <v>4631.313304227941</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1099,16 +1088,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.9675000011920929</v>
+        <v>0.9587053656578064</v>
       </c>
       <c r="C33" t="n">
-        <v>22714.4150390625</v>
+        <v>4490.02294921875</v>
       </c>
       <c r="D33" t="n">
-        <v>0.996363639831543</v>
+        <v>0.9892988450386945</v>
       </c>
       <c r="E33" t="n">
-        <v>22713.97194602273</v>
+        <v>4489.764389935662</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1116,16 +1105,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>0.9774999916553497</v>
+        <v>0.9587053656578064</v>
       </c>
       <c r="C34" t="n">
-        <v>22263.2763671875</v>
+        <v>4352.53955078125</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9986363649368286</v>
+        <v>0.9866727941176471</v>
       </c>
       <c r="E34" t="n">
-        <v>22262.93359375</v>
+        <v>4352.23201976103</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1133,16 +1122,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0.9724999964237213</v>
+        <v>0.9369419515132904</v>
       </c>
       <c r="C35" t="n">
-        <v>21820.6796875</v>
+        <v>4218.93359375</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9959090948104858</v>
+        <v>0.9667148099226111</v>
       </c>
       <c r="E35" t="n">
-        <v>21820.38991477273</v>
+        <v>4218.647144990809</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1150,16 +1139,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>0.9799999892711639</v>
+        <v>0.9503348171710968</v>
       </c>
       <c r="C36" t="n">
-        <v>21386.2373046875</v>
+        <v>4088.98876953125</v>
       </c>
       <c r="D36" t="n">
-        <v>0.996363639831543</v>
+        <v>0.9875919117647058</v>
       </c>
       <c r="E36" t="n">
-        <v>21386.06178977273</v>
+        <v>4088.62109375</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1167,16 +1156,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>0.9824999868869781</v>
+        <v>0.9497767984867096</v>
       </c>
       <c r="C37" t="n">
-        <v>20960.0546875</v>
+        <v>3962.702758789062</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9970454573631287</v>
+        <v>0.984243697979871</v>
       </c>
       <c r="E37" t="n">
-        <v>20959.84765625</v>
+        <v>3962.361012178309</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1184,16 +1173,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>0.9824999868869781</v>
+        <v>0.9547991156578064</v>
       </c>
       <c r="C38" t="n">
-        <v>20541.8740234375</v>
+        <v>3839.913696289062</v>
       </c>
       <c r="D38" t="n">
-        <v>0.9948863658038053</v>
+        <v>0.9745929626857534</v>
       </c>
       <c r="E38" t="n">
-        <v>20541.63423295454</v>
+        <v>3839.679012522978</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1201,16 +1190,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>0.9824999868869781</v>
+        <v>0.9575892984867096</v>
       </c>
       <c r="C39" t="n">
-        <v>20131.4453125</v>
+        <v>3720.568969726562</v>
       </c>
       <c r="D39" t="n">
-        <v>0.9945454597473145</v>
+        <v>0.9898897058823529</v>
       </c>
       <c r="E39" t="n">
-        <v>20131.31658380682</v>
+        <v>3720.350873161765</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1218,16 +1207,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>0.987500011920929</v>
+        <v>0.9542410671710968</v>
       </c>
       <c r="C40" t="n">
-        <v>19728.7509765625</v>
+        <v>3604.707885742188</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9986363649368286</v>
+        <v>0.9813550430185655</v>
       </c>
       <c r="E40" t="n">
-        <v>19728.61186079546</v>
+        <v>3604.49125402114</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1235,16 +1224,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>0.987500011920929</v>
+        <v>0.9542410671710968</v>
       </c>
       <c r="C41" t="n">
-        <v>19333.654296875</v>
+        <v>3492.04833984375</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9977272748947144</v>
+        <v>0.9832589275696698</v>
       </c>
       <c r="E41" t="n">
-        <v>19333.50337357954</v>
+        <v>3491.889619715073</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1252,16 +1241,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>0.9824999868869781</v>
+        <v>0.9626116156578064</v>
       </c>
       <c r="C42" t="n">
-        <v>18945.9794921875</v>
+        <v>3382.630981445312</v>
       </c>
       <c r="D42" t="n">
-        <v>0.996363639831543</v>
+        <v>0.9898897058823529</v>
       </c>
       <c r="E42" t="n">
-        <v>18945.81622869318</v>
+        <v>3382.480971392463</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1269,16 +1258,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>0.9675000011920929</v>
+        <v>0.9626116156578064</v>
       </c>
       <c r="C43" t="n">
-        <v>18565.67578125</v>
+        <v>3276.387329101562</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9938636422157288</v>
+        <v>0.9823398099226111</v>
       </c>
       <c r="E43" t="n">
-        <v>18565.41175426136</v>
+        <v>3276.21488683364</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1286,16 +1275,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>0.987500011920929</v>
+        <v>0.94140625</v>
       </c>
       <c r="C44" t="n">
-        <v>18192.27734375</v>
+        <v>3173.15576171875</v>
       </c>
       <c r="D44" t="n">
-        <v>0.9986363649368286</v>
+        <v>0.9673056707662695</v>
       </c>
       <c r="E44" t="n">
-        <v>18192.13156960227</v>
+        <v>3173.021556181066</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1303,16 +1292,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>0.9799999892711639</v>
+        <v>0.9503348171710968</v>
       </c>
       <c r="C45" t="n">
-        <v>17826.1103515625</v>
+        <v>3072.877807617188</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9909090995788574</v>
+        <v>0.9791228981579051</v>
       </c>
       <c r="E45" t="n">
-        <v>17825.97780539773</v>
+        <v>3072.692109949448</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1320,16 +1309,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>0.9824999868869781</v>
+        <v>0.9497767984867096</v>
       </c>
       <c r="C46" t="n">
-        <v>17466.8037109375</v>
+        <v>2975.439208984375</v>
       </c>
       <c r="D46" t="n">
-        <v>0.996363639831543</v>
+        <v>0.9668461119427401</v>
       </c>
       <c r="E46" t="n">
-        <v>17466.599609375</v>
+        <v>2975.32759363511</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1337,16 +1326,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>0.9774999916553497</v>
+        <v>0.9464285671710968</v>
       </c>
       <c r="C47" t="n">
-        <v>17114.2958984375</v>
+        <v>2880.895385742188</v>
       </c>
       <c r="D47" t="n">
-        <v>0.9870454560626637</v>
+        <v>0.9786633393343758</v>
       </c>
       <c r="E47" t="n">
-        <v>17114.10245028409</v>
+        <v>2880.694206686581</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1354,16 +1343,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>0.9799999892711639</v>
+        <v>0.9425223171710968</v>
       </c>
       <c r="C48" t="n">
-        <v>16768.2265625</v>
+        <v>2788.945922851562</v>
       </c>
       <c r="D48" t="n">
-        <v>0.9968181848526001</v>
+        <v>0.9678965351160835</v>
       </c>
       <c r="E48" t="n">
-        <v>16768.08753551136</v>
+        <v>2788.835291245404</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1371,16 +1360,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>0.987500011920929</v>
+        <v>0.9363839328289032</v>
       </c>
       <c r="C49" t="n">
-        <v>16428.8095703125</v>
+        <v>2699.679565429688</v>
       </c>
       <c r="D49" t="n">
-        <v>0.990340915593234</v>
+        <v>0.9822741606656242</v>
       </c>
       <c r="E49" t="n">
-        <v>16428.7421875</v>
+        <v>2699.544821346507</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1388,16 +1377,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>0.987500011920929</v>
+        <v>0.9547991156578064</v>
       </c>
       <c r="C50" t="n">
-        <v>16095.869140625</v>
+        <v>2612.99853515625</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9986363649368286</v>
+        <v>0.9773503156269298</v>
       </c>
       <c r="E50" t="n">
-        <v>16095.73171164773</v>
+        <v>2612.911764705882</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1405,839 +1394,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>0.9900000095367432</v>
+        <v>0.9547991156578064</v>
       </c>
       <c r="C51" t="n">
-        <v>15769.13134765625</v>
+        <v>2528.865234375</v>
       </c>
       <c r="D51" t="n">
-        <v>0.9971590909090909</v>
+        <v>0.9837184863931993</v>
       </c>
       <c r="E51" t="n">
-        <v>15769.06161221591</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" t="n">
-        <v>51</v>
-      </c>
-      <c r="B52" t="n">
-        <v>0.9824999868869781</v>
-      </c>
-      <c r="C52" t="n">
-        <v>15448.70556640625</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.9918181896209717</v>
-      </c>
-      <c r="E52" t="n">
-        <v>15448.59232954545</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" t="n">
-        <v>52</v>
-      </c>
-      <c r="B53" t="n">
-        <v>0.9699999988079071</v>
-      </c>
-      <c r="C53" t="n">
-        <v>15134.404296875</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.9975000023841858</v>
-      </c>
-      <c r="E53" t="n">
-        <v>15134.12908380682</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" t="n">
-        <v>53</v>
-      </c>
-      <c r="B54" t="n">
-        <v>0.9699999988079071</v>
-      </c>
-      <c r="C54" t="n">
-        <v>14825.939453125</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.9962500008669767</v>
-      </c>
-      <c r="E54" t="n">
-        <v>14825.68048650568</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" t="n">
-        <v>54</v>
-      </c>
-      <c r="B55" t="n">
-        <v>0.9725000262260437</v>
-      </c>
-      <c r="C55" t="n">
-        <v>14523.23974609375</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.9981818199157715</v>
-      </c>
-      <c r="E55" t="n">
-        <v>14523.03631036932</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" t="n">
-        <v>55</v>
-      </c>
-      <c r="B56" t="n">
-        <v>0.9850000143051147</v>
-      </c>
-      <c r="C56" t="n">
-        <v>14226.27490234375</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0.9971590909090909</v>
-      </c>
-      <c r="E56" t="n">
-        <v>14226.12846235795</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" t="n">
-        <v>56</v>
-      </c>
-      <c r="B57" t="n">
-        <v>0.9850000143051147</v>
-      </c>
-      <c r="C57" t="n">
-        <v>13934.96826171875</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0.9981818199157715</v>
-      </c>
-      <c r="E57" t="n">
-        <v>13934.8671875</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" t="n">
-        <v>57</v>
-      </c>
-      <c r="B58" t="n">
-        <v>0.987500011920929</v>
-      </c>
-      <c r="C58" t="n">
-        <v>13649.2548828125</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0.9935227307406339</v>
-      </c>
-      <c r="E58" t="n">
-        <v>13649.15926846591</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" t="n">
-        <v>58</v>
-      </c>
-      <c r="B59" t="n">
-        <v>0.9725000262260437</v>
-      </c>
-      <c r="C59" t="n">
-        <v>13369.01513671875</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0.9962500008669767</v>
-      </c>
-      <c r="E59" t="n">
-        <v>13368.86727627841</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" t="n">
-        <v>59</v>
-      </c>
-      <c r="B60" t="n">
-        <v>0.9699999988079071</v>
-      </c>
-      <c r="C60" t="n">
-        <v>13094.16259765625</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0.9968181848526001</v>
-      </c>
-      <c r="E60" t="n">
-        <v>13093.90633877841</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" t="n">
-        <v>60</v>
-      </c>
-      <c r="B61" t="n">
-        <v>0.987500011920929</v>
-      </c>
-      <c r="C61" t="n">
-        <v>12824.32470703125</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0.9976136359301481</v>
-      </c>
-      <c r="E61" t="n">
-        <v>12824.19779829545</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" t="n">
-        <v>61</v>
-      </c>
-      <c r="B62" t="n">
-        <v>0.9774999916553497</v>
-      </c>
-      <c r="C62" t="n">
-        <v>12559.830078125</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0.9968181848526001</v>
-      </c>
-      <c r="E62" t="n">
-        <v>12559.63156960227</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" t="n">
-        <v>62</v>
-      </c>
-      <c r="B63" t="n">
-        <v>0.9824999868869781</v>
-      </c>
-      <c r="C63" t="n">
-        <v>12300.1953125</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E63" t="n">
-        <v>12300.103515625</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" t="n">
-        <v>63</v>
-      </c>
-      <c r="B64" t="n">
-        <v>0.9724999964237213</v>
-      </c>
-      <c r="C64" t="n">
-        <v>12045.6572265625</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0.9967045458880338</v>
-      </c>
-      <c r="E64" t="n">
-        <v>12045.55974786932</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" t="n">
-        <v>64</v>
-      </c>
-      <c r="B65" t="n">
-        <v>0.987500011920929</v>
-      </c>
-      <c r="C65" t="n">
-        <v>11795.9453125</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0.9989772709933195</v>
-      </c>
-      <c r="E65" t="n">
-        <v>11795.85768821023</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" t="n">
-        <v>65</v>
-      </c>
-      <c r="B66" t="n">
-        <v>0.9850000143051147</v>
-      </c>
-      <c r="C66" t="n">
-        <v>11551.02490234375</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0.9956818222999573</v>
-      </c>
-      <c r="E66" t="n">
-        <v>11550.95587713068</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" t="n">
-        <v>66</v>
-      </c>
-      <c r="B67" t="n">
-        <v>0.9725000262260437</v>
-      </c>
-      <c r="C67" t="n">
-        <v>11310.841796875</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0.9977272748947144</v>
-      </c>
-      <c r="E67" t="n">
-        <v>11310.71564275568</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" t="n">
-        <v>67</v>
-      </c>
-      <c r="B68" t="n">
-        <v>0.9850000143051147</v>
-      </c>
-      <c r="C68" t="n">
-        <v>11075.138671875</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E68" t="n">
-        <v>11075.09543678977</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" t="n">
-        <v>68</v>
-      </c>
-      <c r="B69" t="n">
-        <v>0.9850000143051147</v>
-      </c>
-      <c r="C69" t="n">
-        <v>10844.06201171875</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E69" t="n">
-        <v>10844.01340553977</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" t="n">
-        <v>69</v>
-      </c>
-      <c r="B70" t="n">
-        <v>0.9799999892711639</v>
-      </c>
-      <c r="C70" t="n">
-        <v>10617.50390625</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0.9976136359301481</v>
-      </c>
-      <c r="E70" t="n">
-        <v>10617.37846235795</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" t="n">
-        <v>70</v>
-      </c>
-      <c r="B71" t="n">
-        <v>0.9850000143051147</v>
-      </c>
-      <c r="C71" t="n">
-        <v>10395.1689453125</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0.9995454549789429</v>
-      </c>
-      <c r="E71" t="n">
-        <v>10395.10236150568</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" t="n">
-        <v>71</v>
-      </c>
-      <c r="B72" t="n">
-        <v>0.9824999868869781</v>
-      </c>
-      <c r="C72" t="n">
-        <v>10177.23486328125</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0.996363639831543</v>
-      </c>
-      <c r="E72" t="n">
-        <v>10177.12064985795</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" t="n">
-        <v>72</v>
-      </c>
-      <c r="B73" t="n">
-        <v>0.9824999868869781</v>
-      </c>
-      <c r="C73" t="n">
-        <v>9963.46484375</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0.9952272772789001</v>
-      </c>
-      <c r="E73" t="n">
-        <v>9963.343039772728</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" t="n">
-        <v>73</v>
-      </c>
-      <c r="B74" t="n">
-        <v>0.987500011920929</v>
-      </c>
-      <c r="C74" t="n">
-        <v>9753.76416015625</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E74" t="n">
-        <v>9753.69034090909</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" t="n">
-        <v>74</v>
-      </c>
-      <c r="B75" t="n">
-        <v>0.9850000143051147</v>
-      </c>
-      <c r="C75" t="n">
-        <v>9548.1923828125</v>
-      </c>
-      <c r="D75" t="n">
-        <v>0.9972727298736572</v>
-      </c>
-      <c r="E75" t="n">
-        <v>9548.11416903409</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" t="n">
-        <v>75</v>
-      </c>
-      <c r="B76" t="n">
-        <v>0.9824999868869781</v>
-      </c>
-      <c r="C76" t="n">
-        <v>9346.56396484375</v>
-      </c>
-      <c r="D76" t="n">
-        <v>0.9980681809512052</v>
-      </c>
-      <c r="E76" t="n">
-        <v>9346.49112215909</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" t="n">
-        <v>76</v>
-      </c>
-      <c r="B77" t="n">
-        <v>0.987500011920929</v>
-      </c>
-      <c r="C77" t="n">
-        <v>9148.869140625</v>
-      </c>
-      <c r="D77" t="n">
-        <v>0.9972727298736572</v>
-      </c>
-      <c r="E77" t="n">
-        <v>9148.78133877841</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" t="n">
-        <v>77</v>
-      </c>
-      <c r="B78" t="n">
-        <v>0.9725000262260437</v>
-      </c>
-      <c r="C78" t="n">
-        <v>8955.00341796875</v>
-      </c>
-      <c r="D78" t="n">
-        <v>0.9951136383143339</v>
-      </c>
-      <c r="E78" t="n">
-        <v>8954.919389204546</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" t="n">
-        <v>78</v>
-      </c>
-      <c r="B79" t="n">
-        <v>0.9900000095367432</v>
-      </c>
-      <c r="C79" t="n">
-        <v>8764.8759765625</v>
-      </c>
-      <c r="D79" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E79" t="n">
-        <v>8764.83487215909</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" t="n">
-        <v>79</v>
-      </c>
-      <c r="B80" t="n">
-        <v>0.9799999892711639</v>
-      </c>
-      <c r="C80" t="n">
-        <v>8578.5439453125</v>
-      </c>
-      <c r="D80" t="n">
-        <v>0.9905681881037626</v>
-      </c>
-      <c r="E80" t="n">
-        <v>8578.46963778409</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" t="n">
-        <v>80</v>
-      </c>
-      <c r="B81" t="n">
-        <v>0.9750000238418579</v>
-      </c>
-      <c r="C81" t="n">
-        <v>8395.7412109375</v>
-      </c>
-      <c r="D81" t="n">
-        <v>0.9981818199157715</v>
-      </c>
-      <c r="E81" t="n">
-        <v>8395.676402698864</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.9977037887485649</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.9977037887485649</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.8461538461538461</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="n">
-        <v>0.004975124378109453</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.9977037887485649</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.8461538461538461</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="n">
-        <v>0.004975124378109453</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.9977037887485649</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.9230769230769231</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="n">
-        <v>0.009950248756218905</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.9977037887485649</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.9230769230769231</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="n">
-        <v>0.009950248756218905</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.9977037887485649</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.9487179487179487</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="n">
-        <v>0.02985074626865672</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.9977037887485649</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.9487179487179487</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="n">
-        <v>0.02985074626865672</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.9977037887485649</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9743589743589743</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="n">
-        <v>0.03482587064676617</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.9977037887485649</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9743589743589743</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="n">
-        <v>0.03482587064676617</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.9977037887485649</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="n">
-        <v>1</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.9977037887485649</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.9977037887485649</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.8507462686567164</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.9977037887485649</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.8756218905472637</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.9977037887485649</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.9651741293532339</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="n">
-        <v>0.02564102564102564</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.9977037887485649</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.9651741293532339</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="n">
-        <v>0.02564102564102564</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.9977037887485649</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.9701492537313433</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="n">
-        <v>0.05128205128205128</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.9977037887485649</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.9701492537313433</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="n">
-        <v>0.05128205128205128</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.9977037887485649</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.9900497512437811</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="n">
-        <v>0.07692307692307693</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.9977037887485649</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9900497512437811</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="n">
-        <v>0.07692307692307693</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.9977037887485649</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9950248756218906</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="n">
-        <v>0.1538461538461539</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.9977037887485649</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.9950248756218906</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="n">
-        <v>0.1538461538461539</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.9977037887485649</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="n">
-        <v>1</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.9977037887485649</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
+        <v>2528.788200827206</v>
       </c>
     </row>
   </sheetData>
